--- a/data/trans_dic/P2403-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2403-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2403-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2403-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>1,02; 5,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>0; 0,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>0,34; 3,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,0; 0,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,96; 3,72</t>
         </is>
       </c>
     </row>
@@ -747,42 +747,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0; 0,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,23; 4,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>0,17; 1,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,1; 0,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,79; 2,33</t>
         </is>
       </c>
     </row>
@@ -857,42 +857,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>0; 0,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>1,8; 5,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>0,88; 4,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>0; 0,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>0,29; 2,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>1,08; 4,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>1,18; 3,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>1,27; 3,66</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,07%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>0,74; 3,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>2,54; 5,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>2,57; 6,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>0,79; 2,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>3,43; 8,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,42; 1,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,94; 3,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>3,58; 7,16</t>
         </is>
       </c>
     </row>
@@ -1077,42 +1077,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>0; 0,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>1,33; 6,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0,93; 5,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>0; 0,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>0; 0,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0,4; 3,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>0,65; 3,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>1,04; 3,47</t>
         </is>
       </c>
     </row>
@@ -1187,42 +1187,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>0; 0,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>1,02; 4,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>1,17; 6,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>0,32; 2,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>0,0; 4,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>0,83; 3,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0,87; 3,69</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>2,35; 5,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>1,2; 4,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,39; 2,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0,43; 2,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,6; 3,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,0; 2,56</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,14; 1,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,93; 3,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,15; 3,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 0,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,73; 2,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,08; 0,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,53; 1,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,11; 2,45</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,2; 0,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,16; 3,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,06; 3,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,0; 0,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,54; 1,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,27; 2,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,13; 0,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>1,4; 2,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,82; 2,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2403-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2403-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,55; 6,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 3,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 3,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,99</t>
+          <t>2,46; 7,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,88</t>
+          <t>0,8; 4,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,94</t>
+          <t>2,13; 5,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
